--- a/medicine/Enfance/Sven_Nordqvist/Sven_Nordqvist.xlsx
+++ b/medicine/Enfance/Sven_Nordqvist/Sven_Nordqvist.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sven Nordqvist (né le 30 avril 1946 à Helsingborg) est un auteur et illustrateur de littérature d'enfance et de jeunesse suédois.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il grandit à Halmstad et étudie l'architecture à l'école polytechnique de Lund. Il travaille comme professeur d'architecture avant de se consacrer à l'écriture et à l'illustration. 
-Ses livres les plus populaires sont la série Pettson et Picpus (Pettson och Findus en suédois), les histoires d'un vieux fermier et de son chat[1].
-Il a aussi publié un album sur les tomtes ou lutins de Noël, Julgröten. Son album Var är min syster? (Où est ma sœur ?) a été traduit en anglais[2], en allemand, en polonais[3] et en espagnol[4].
-En 2023, il est sélectionné pour le prestigieux prix suédois, le Prix commémoratif Astrid-Lindgren[5].
+Ses livres les plus populaires sont la série Pettson et Picpus (Pettson och Findus en suédois), les histoires d'un vieux fermier et de son chat.
+Il a aussi publié un album sur les tomtes ou lutins de Noël, Julgröten. Son album Var är min syster? (Où est ma sœur ?) a été traduit en anglais, en allemand, en polonais et en espagnol.
+En 2023, il est sélectionné pour le prestigieux prix suédois, le Prix commémoratif Astrid-Lindgren.
 </t>
         </is>
       </c>
@@ -545,13 +559,15 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1988 : (international) « Honour List »[6] de l' IBBY, catégorie Illustration, pour Stackars Pettson (qu'il a également écrit)
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1988 : (international) « Honour List » de l' IBBY, catégorie Illustration, pour Stackars Pettson (qu'il a également écrit)
 1992 : (Allemagne) Deutscher Jugendliteraturpreis pour Linsen, Lupen und magische Skope qu'il a illustré, sur un texte de Pelle Eckerman
-2000 : (international) « Honour List »[7] de l' IBBY, catégorie Illustration, pour Den långa resan (sur un texte coécrit avec  Mats Wahl)
+2000 : (international) « Honour List » de l' IBBY, catégorie Illustration, pour Den långa resan (sur un texte coécrit avec  Mats Wahl)
 2007 : (Suède) Prix August (Augustpriset)
-2023 : Sélection pour le Prix commémoratif Astrid-Lindgren[5]</t>
+2023 : Sélection pour le Prix commémoratif Astrid-Lindgren</t>
         </is>
       </c>
     </row>
@@ -579,7 +595,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Pettson n'a pas la pêche, Autrement jeunesse, 2007.
 Le jour où Picpus a disparu, Autrement jeunesse, 2008.
